--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value452.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value452.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.237760118421521</v>
+        <v>0.9006006717681885</v>
       </c>
       <c r="B1">
-        <v>1.481938889818817</v>
+        <v>1.320859432220459</v>
       </c>
       <c r="C1">
-        <v>1.970102932481003</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>4.628440550392892</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>2.054699206079916</v>
+        <v>1.679266333580017</v>
       </c>
     </row>
   </sheetData>
